--- a/CodeSystem-location-type-cs.xlsx
+++ b/CodeSystem-location-type-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-29T07:15:55+00:00</t>
+    <t>2025-04-29T07:35:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-location-type-cs.xlsx
+++ b/CodeSystem-location-type-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-29T07:35:04+00:00</t>
+    <t>2025-04-29T09:17:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-location-type-cs.xlsx
+++ b/CodeSystem-location-type-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-29T09:17:33+00:00</t>
+    <t>2025-04-29T09:25:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-location-type-cs.xlsx
+++ b/CodeSystem-location-type-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-29T09:25:32+00:00</t>
+    <t>2025-04-29T10:31:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
